--- a/data/case1/11/V2_14.xlsx
+++ b/data/case1/11/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998817319691</v>
+        <v>0.99999999088063629</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99748326172150659</v>
+        <v>0.99770837692795289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98764099414594153</v>
+        <v>0.9935591722672299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.98777107592160873</v>
+        <v>0.99638236753418241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97465419561728539</v>
+        <v>0.98605844551271749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95106269069244864</v>
+        <v>0.96089296566472138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95028631897318039</v>
+        <v>0.95902581401898579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94837348850426384</v>
+        <v>0.95636660130683993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94980173216165498</v>
+        <v>0.95607070031746821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95219410841948549</v>
+        <v>0.95672585775126739</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95256729905633641</v>
+        <v>0.95689095427797266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95007280241548742</v>
+        <v>0.95396426572436732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94020483964063151</v>
+        <v>0.94146110044102915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93668764705182384</v>
+        <v>0.93729441910923361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93468798724378555</v>
+        <v>0.93470327566550782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93287269233076442</v>
+        <v>0.93219701021300549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92916508974614009</v>
+        <v>0.92848932290977215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92805621832547258</v>
+        <v>0.9273804345545672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99643014368705496</v>
+        <v>0.99467086806764016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98931339918838002</v>
+        <v>0.97004106670252155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98791495892605141</v>
+        <v>0.96321178949893138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98665046557468183</v>
+        <v>0.96194727767385602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97830602125178767</v>
+        <v>0.98652505560170378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96023100100308945</v>
+        <v>0.97350485942562637</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95377399004720975</v>
+        <v>0.96704798369727407</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94740849053264364</v>
+        <v>0.95723967799557186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94256345325516633</v>
+        <v>0.95239585804308191</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92109559745845204</v>
+        <v>0.93093198131008736</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.90582632149216014</v>
+        <v>0.91566402778262623</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.89925645641777874</v>
+        <v>0.90909438152065103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8916033114511136</v>
+        <v>0.90144127992589074</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.88992408409531387</v>
+        <v>0.89976202031928709</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8894041018614488</v>
+        <v>0.89924202562772071</v>
       </c>
     </row>
   </sheetData>
